--- a/experiment/nonconvex/MitsosBarton2006Ex323/compare/M-Estacionario/MitsosBarton2006Ex323_M-Estacionario.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex323/compare/M-Estacionario/MitsosBarton2006Ex323_M-Estacionario.xlsx
@@ -473,13 +473,13 @@
         <v>9.68982194996958</v>
       </c>
       <c r="E2">
-        <v>0.0254835</v>
+        <v>0.03622</v>
       </c>
       <c r="F2">
-        <v>0.0475714</v>
+        <v>0.07954</v>
       </c>
       <c r="G2">
-        <v>0.03269850392156863</v>
+        <v>0.048881390196078435</v>
       </c>
       <c r="H2">
         <v>6846</v>
